--- a/data/mappers/node_evaluation_vissim_report_mapping.xlsx
+++ b/data/mappers/node_evaluation_vissim_report_mapping.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abibeka\Github\Tobin Bridge Vissim Processing\data\mappers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA52CAE-E642-4ECC-8F65-DEB828701047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FF24B9-A8A9-4C18-B932-28F1F345FF09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4EEC3B63-2907-4D6D-8AF0-8B40ADC5D7B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21864" windowHeight="13176" activeTab="2" xr2:uid="{4EEC3B63-2907-4D6D-8AF0-8B40ADC5D7B7}"/>
   </bookViews>
   <sheets>
     <sheet name="vissim_report_convertion" sheetId="1" r:id="rId1"/>
     <sheet name="deduplicate_movements" sheetId="2" r:id="rId2"/>
+    <sheet name="node_types" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="127">
   <si>
     <t>direction_results</t>
   </si>
@@ -407,6 +408,15 @@
   </si>
   <si>
     <t>NWB MA 3</t>
+  </si>
+  <si>
+    <t>intersection_type</t>
+  </si>
+  <si>
+    <t>Signalized</t>
+  </si>
+  <si>
+    <t>twsc</t>
   </si>
 </sst>
 </file>
@@ -422,18 +432,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -485,30 +489,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -526,6 +542,63 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -556,7 +629,52 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -585,37 +703,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -626,8 +719,6 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
   </dxfs>
@@ -656,14 +747,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CED0673-5A03-4330-B343-84BE1B2EF9BC}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CED0673-5A03-4330-B343-84BE1B2EF9BC}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:E12" xr:uid="{D0009935-82AE-4D9E-A12D-E81A08FD2009}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B2EA7CCF-D201-4464-A4A6-5753DA0ED25F}" name="node_no" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{21D3F657-5776-4BED-9A8B-FBCE2C52F8BB}" name="movement_direction" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{4C9CECDD-0AF2-4F0B-A2F9-5E53CA791932}" name="movement_direction_unique"/>
-    <tableColumn id="4" xr3:uid="{A955384D-2EA8-4552-BD50-DCC68799798E}" name="from_link" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{F408AD12-55E3-4355-A010-0B3BD255BAA7}" name="to_link" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B2EA7CCF-D201-4464-A4A6-5753DA0ED25F}" name="node_no" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{21D3F657-5776-4BED-9A8B-FBCE2C52F8BB}" name="movement_direction" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{4C9CECDD-0AF2-4F0B-A2F9-5E53CA791932}" name="movement_direction_unique" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{A955384D-2EA8-4552-BD50-DCC68799798E}" name="from_link" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{F408AD12-55E3-4355-A010-0B3BD255BAA7}" name="to_link" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A172F30-4ABE-481F-96E3-1E3964D9BFFF}" name="Table3" displayName="Table3" ref="A1:B19" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:B19" xr:uid="{01382732-1F04-417D-BCCF-1BB2E848AF38}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B8A5CC37-DC65-443D-91D8-B7DBA6588226}" name="node_no" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4B32E5B1-CA05-4B71-B5A7-74FF48B5E36C}" name="intersection_type" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -968,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA83A6C2-E793-48C7-9267-43E16B54640C}">
   <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2301,8 +2403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368A3629-2649-458F-B1E2-576370896C83}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2313,207 +2415,380 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FDF1FD-5AD3-461B-8988-CF3807561F99}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/data/mappers/node_evaluation_vissim_report_mapping.xlsx
+++ b/data/mappers/node_evaluation_vissim_report_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abibeka\Github\Tobin Bridge Vissim Processing\data\mappers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FF24B9-A8A9-4C18-B932-28F1F345FF09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353AE1C3-7B65-46AF-AEB9-BF9ADE24DFC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21864" windowHeight="13176" activeTab="2" xr2:uid="{4EEC3B63-2907-4D6D-8AF0-8B40ADC5D7B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{4EEC3B63-2907-4D6D-8AF0-8B40ADC5D7B7}"/>
   </bookViews>
   <sheets>
     <sheet name="vissim_report_convertion" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="128">
   <si>
     <t>direction_results</t>
   </si>
@@ -417,6 +439,9 @@
   </si>
   <si>
     <t>twsc</t>
+  </si>
+  <si>
+    <t>node_type</t>
   </si>
 </sst>
 </file>
@@ -508,14 +533,9 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -566,14 +586,8 @@
     <dxf>
       <fill>
         <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -721,6 +735,20 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -735,33 +763,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5D3C6437-7CA1-4099-B1FD-65186A1F8F1C}" name="Table2" displayName="Table2" ref="A1:C119" totalsRowShown="0">
-  <autoFilter ref="A1:C119" xr:uid="{1ED07796-7F1D-4F6D-8BFF-D5C32F34D226}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5D3C6437-7CA1-4099-B1FD-65186A1F8F1C}" name="Table2" displayName="Table2" ref="A1:D119" totalsRowShown="0">
+  <autoFilter ref="A1:D119" xr:uid="{1ED07796-7F1D-4F6D-8BFF-D5C32F34D226}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A63E5687-EF45-4160-9811-72FB26DBD582}" name="node_no"/>
     <tableColumn id="2" xr3:uid="{77108235-2309-4974-853B-868B6066C38E}" name="movement_direction_unique"/>
     <tableColumn id="5" xr3:uid="{1FBE862F-4B52-4EE6-A8E9-5A4BBB436083}" name="direction_results"/>
+    <tableColumn id="3" xr3:uid="{FE80B79D-1891-4272-968A-3DB7C108A7DB}" name="node_type" dataDxfId="0">
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CED0673-5A03-4330-B343-84BE1B2EF9BC}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CED0673-5A03-4330-B343-84BE1B2EF9BC}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:E12" xr:uid="{D0009935-82AE-4D9E-A12D-E81A08FD2009}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B2EA7CCF-D201-4464-A4A6-5753DA0ED25F}" name="node_no" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{21D3F657-5776-4BED-9A8B-FBCE2C52F8BB}" name="movement_direction" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{4C9CECDD-0AF2-4F0B-A2F9-5E53CA791932}" name="movement_direction_unique" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{A955384D-2EA8-4552-BD50-DCC68799798E}" name="from_link" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{F408AD12-55E3-4355-A010-0B3BD255BAA7}" name="to_link" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{B2EA7CCF-D201-4464-A4A6-5753DA0ED25F}" name="node_no" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{21D3F657-5776-4BED-9A8B-FBCE2C52F8BB}" name="movement_direction" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{4C9CECDD-0AF2-4F0B-A2F9-5E53CA791932}" name="movement_direction_unique" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{A955384D-2EA8-4552-BD50-DCC68799798E}" name="from_link" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{F408AD12-55E3-4355-A010-0B3BD255BAA7}" name="to_link" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A172F30-4ABE-481F-96E3-1E3964D9BFFF}" name="Table3" displayName="Table3" ref="A1:B19" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A172F30-4ABE-481F-96E3-1E3964D9BFFF}" name="Table3" displayName="Table3" ref="A1:B19" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:B19" xr:uid="{01382732-1F04-417D-BCCF-1BB2E848AF38}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B8A5CC37-DC65-443D-91D8-B7DBA6588226}" name="node_no" dataDxfId="2"/>
@@ -1068,20 +1099,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA83A6C2-E793-48C7-9267-43E16B54640C}">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A119"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -1091,8 +1122,11 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1102,8 +1136,12 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="str" cm="1">
+        <f t="array" ref="D2">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1113,8 +1151,12 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="str" cm="1">
+        <f t="array" ref="D3">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1124,8 +1166,12 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="str" cm="1">
+        <f t="array" ref="D4">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1135,8 +1181,12 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="str" cm="1">
+        <f t="array" ref="D5">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1146,8 +1196,12 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="str" cm="1">
+        <f t="array" ref="D6">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1157,8 +1211,12 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="str" cm="1">
+        <f t="array" ref="D7">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1168,8 +1226,12 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="str" cm="1">
+        <f t="array" ref="D8">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1179,8 +1241,12 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="str" cm="1">
+        <f t="array" ref="D9">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1190,8 +1256,12 @@
       <c r="C10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="str" cm="1">
+        <f t="array" ref="D10">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1201,8 +1271,12 @@
       <c r="C11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="str" cm="1">
+        <f t="array" ref="D11">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1212,8 +1286,12 @@
       <c r="C12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="str" cm="1">
+        <f t="array" ref="D12">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1223,8 +1301,12 @@
       <c r="C13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="str" cm="1">
+        <f t="array" ref="D13">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1234,8 +1316,12 @@
       <c r="C14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="str" cm="1">
+        <f t="array" ref="D14">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1245,8 +1331,12 @@
       <c r="C15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="str" cm="1">
+        <f t="array" ref="D15">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1256,8 +1346,12 @@
       <c r="C16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="str" cm="1">
+        <f t="array" ref="D16">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1267,8 +1361,12 @@
       <c r="C17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="str" cm="1">
+        <f t="array" ref="D17">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1278,8 +1376,12 @@
       <c r="C18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="str" cm="1">
+        <f t="array" ref="D18">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1289,8 +1391,12 @@
       <c r="C19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="str" cm="1">
+        <f t="array" ref="D19">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1300,8 +1406,12 @@
       <c r="C20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="str" cm="1">
+        <f t="array" ref="D20">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1311,8 +1421,12 @@
       <c r="C21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="str" cm="1">
+        <f t="array" ref="D21">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1322,8 +1436,12 @@
       <c r="C22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="str" cm="1">
+        <f t="array" ref="D22">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1333,8 +1451,12 @@
       <c r="C23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="str" cm="1">
+        <f t="array" ref="D23">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -1344,8 +1466,12 @@
       <c r="C24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="str" cm="1">
+        <f t="array" ref="D24">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1355,8 +1481,12 @@
       <c r="C25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="str" cm="1">
+        <f t="array" ref="D25">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1366,8 +1496,12 @@
       <c r="C26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="str" cm="1">
+        <f t="array" ref="D26">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1377,8 +1511,12 @@
       <c r="C27" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="str" cm="1">
+        <f t="array" ref="D27">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1388,8 +1526,12 @@
       <c r="C28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="str" cm="1">
+        <f t="array" ref="D28">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1399,8 +1541,12 @@
       <c r="C29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="str" cm="1">
+        <f t="array" ref="D29">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1410,8 +1556,12 @@
       <c r="C30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="str" cm="1">
+        <f t="array" ref="D30">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1421,8 +1571,12 @@
       <c r="C31" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="str" cm="1">
+        <f t="array" ref="D31">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1432,8 +1586,12 @@
       <c r="C32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="str" cm="1">
+        <f t="array" ref="D32">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1443,8 +1601,12 @@
       <c r="C33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="str" cm="1">
+        <f t="array" ref="D33">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1454,8 +1616,12 @@
       <c r="C34" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="str" cm="1">
+        <f t="array" ref="D34">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1465,8 +1631,12 @@
       <c r="C35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="str" cm="1">
+        <f t="array" ref="D35">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1476,8 +1646,12 @@
       <c r="C36" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="str" cm="1">
+        <f t="array" ref="D36">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1487,8 +1661,12 @@
       <c r="C37" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="str" cm="1">
+        <f t="array" ref="D37">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -1498,8 +1676,12 @@
       <c r="C38" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="str" cm="1">
+        <f t="array" ref="D38">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -1509,8 +1691,12 @@
       <c r="C39" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="str" cm="1">
+        <f t="array" ref="D39">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -1520,8 +1706,12 @@
       <c r="C40" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="str" cm="1">
+        <f t="array" ref="D40">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -1531,8 +1721,12 @@
       <c r="C41" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="str" cm="1">
+        <f t="array" ref="D41">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -1542,8 +1736,12 @@
       <c r="C42" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="str" cm="1">
+        <f t="array" ref="D42">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -1553,8 +1751,12 @@
       <c r="C43" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="str" cm="1">
+        <f t="array" ref="D43">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -1564,8 +1766,12 @@
       <c r="C44" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" t="str" cm="1">
+        <f t="array" ref="D44">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1575,8 +1781,12 @@
       <c r="C45" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="str" cm="1">
+        <f t="array" ref="D45">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1586,8 +1796,12 @@
       <c r="C46" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" t="str" cm="1">
+        <f t="array" ref="D46">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -1597,8 +1811,12 @@
       <c r="C47" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="str" cm="1">
+        <f t="array" ref="D47">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -1608,8 +1826,12 @@
       <c r="C48" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="str" cm="1">
+        <f t="array" ref="D48">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1619,8 +1841,12 @@
       <c r="C49" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="str" cm="1">
+        <f t="array" ref="D49">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1630,8 +1856,12 @@
       <c r="C50" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" t="str" cm="1">
+        <f t="array" ref="D50">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1641,8 +1871,12 @@
       <c r="C51" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" t="str" cm="1">
+        <f t="array" ref="D51">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1652,8 +1886,12 @@
       <c r="C52" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" t="str" cm="1">
+        <f t="array" ref="D52">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1663,8 +1901,12 @@
       <c r="C53" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" t="str" cm="1">
+        <f t="array" ref="D53">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1674,8 +1916,12 @@
       <c r="C54" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" t="str" cm="1">
+        <f t="array" ref="D54">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1685,8 +1931,12 @@
       <c r="C55" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" t="str" cm="1">
+        <f t="array" ref="D55">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -1696,8 +1946,12 @@
       <c r="C56" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" t="str" cm="1">
+        <f t="array" ref="D56">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -1707,8 +1961,12 @@
       <c r="C57" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" t="str" cm="1">
+        <f t="array" ref="D57">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>53</v>
       </c>
@@ -1718,8 +1976,12 @@
       <c r="C58" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" t="str" cm="1">
+        <f t="array" ref="D58">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -1729,8 +1991,12 @@
       <c r="C59" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" t="str" cm="1">
+        <f t="array" ref="D59">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -1740,8 +2006,12 @@
       <c r="C60" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" t="str" cm="1">
+        <f t="array" ref="D60">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -1751,8 +2021,12 @@
       <c r="C61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" t="str" cm="1">
+        <f t="array" ref="D61">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -1762,8 +2036,12 @@
       <c r="C62" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" t="str" cm="1">
+        <f t="array" ref="D62">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>73</v>
       </c>
@@ -1773,8 +2051,12 @@
       <c r="C63" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" t="str" cm="1">
+        <f t="array" ref="D63">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -1784,8 +2066,12 @@
       <c r="C64" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" t="str" cm="1">
+        <f t="array" ref="D64">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -1795,8 +2081,12 @@
       <c r="C65" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" t="str" cm="1">
+        <f t="array" ref="D65">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -1806,8 +2096,12 @@
       <c r="C66" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" t="str" cm="1">
+        <f t="array" ref="D66">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -1817,8 +2111,12 @@
       <c r="C67" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" t="str" cm="1">
+        <f t="array" ref="D67">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -1828,8 +2126,12 @@
       <c r="C68" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" t="str" cm="1">
+        <f t="array" ref="D68">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -1839,8 +2141,12 @@
       <c r="C69" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" t="str" cm="1">
+        <f t="array" ref="D69">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>Signalized</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -1850,8 +2156,12 @@
       <c r="C70" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" t="str" cm="1">
+        <f t="array" ref="D70">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -1861,8 +2171,12 @@
       <c r="C71" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" t="str" cm="1">
+        <f t="array" ref="D71">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -1872,8 +2186,12 @@
       <c r="C72" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" t="str" cm="1">
+        <f t="array" ref="D72">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -1883,8 +2201,12 @@
       <c r="C73" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" t="str" cm="1">
+        <f t="array" ref="D73">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -1894,8 +2216,12 @@
       <c r="C74" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" t="str" cm="1">
+        <f t="array" ref="D74">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -1905,8 +2231,12 @@
       <c r="C75" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" t="str" cm="1">
+        <f t="array" ref="D75">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -1916,8 +2246,12 @@
       <c r="C76" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" t="str" cm="1">
+        <f t="array" ref="D76">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -1927,8 +2261,12 @@
       <c r="C77" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" t="str" cm="1">
+        <f t="array" ref="D77">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -1938,8 +2276,12 @@
       <c r="C78" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" t="str" cm="1">
+        <f t="array" ref="D78">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -1949,8 +2291,12 @@
       <c r="C79" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" t="str" cm="1">
+        <f t="array" ref="D79">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -1960,8 +2306,12 @@
       <c r="C80" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" t="str" cm="1">
+        <f t="array" ref="D80">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -1971,8 +2321,12 @@
       <c r="C81" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" t="str" cm="1">
+        <f t="array" ref="D81">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -1982,8 +2336,12 @@
       <c r="C82" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" t="str" cm="1">
+        <f t="array" ref="D82">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -1993,8 +2351,12 @@
       <c r="C83" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83" t="str" cm="1">
+        <f t="array" ref="D83">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -2004,8 +2366,12 @@
       <c r="C84" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84" t="str" cm="1">
+        <f t="array" ref="D84">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -2015,8 +2381,12 @@
       <c r="C85" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85" t="str" cm="1">
+        <f t="array" ref="D85">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2026,8 +2396,12 @@
       <c r="C86" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86" t="str" cm="1">
+        <f t="array" ref="D86">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -2037,8 +2411,12 @@
       <c r="C87" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87" t="str" cm="1">
+        <f t="array" ref="D87">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2048,8 +2426,12 @@
       <c r="C88" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" t="str" cm="1">
+        <f t="array" ref="D88">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -2059,8 +2441,12 @@
       <c r="C89" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89" t="str" cm="1">
+        <f t="array" ref="D89">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -2070,8 +2456,12 @@
       <c r="C90" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90" t="str" cm="1">
+        <f t="array" ref="D90">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -2081,8 +2471,12 @@
       <c r="C91" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91" t="str" cm="1">
+        <f t="array" ref="D91">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -2092,8 +2486,12 @@
       <c r="C92" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92" t="str" cm="1">
+        <f t="array" ref="D92">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>88</v>
       </c>
@@ -2103,8 +2501,12 @@
       <c r="C93" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93" t="str" cm="1">
+        <f t="array" ref="D93">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>88</v>
       </c>
@@ -2114,8 +2516,12 @@
       <c r="C94" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94" t="str" cm="1">
+        <f t="array" ref="D94">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>88</v>
       </c>
@@ -2125,8 +2531,12 @@
       <c r="C95" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95" t="str" cm="1">
+        <f t="array" ref="D95">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>89</v>
       </c>
@@ -2136,8 +2546,12 @@
       <c r="C96" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96" t="str" cm="1">
+        <f t="array" ref="D96">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>89</v>
       </c>
@@ -2147,8 +2561,12 @@
       <c r="C97" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97" t="str" cm="1">
+        <f t="array" ref="D97">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>89</v>
       </c>
@@ -2158,8 +2576,12 @@
       <c r="C98" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98" t="str" cm="1">
+        <f t="array" ref="D98">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>89</v>
       </c>
@@ -2169,8 +2591,12 @@
       <c r="C99" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99" t="str" cm="1">
+        <f t="array" ref="D99">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>91</v>
       </c>
@@ -2180,8 +2606,12 @@
       <c r="C100" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100" t="str" cm="1">
+        <f t="array" ref="D100">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>91</v>
       </c>
@@ -2191,8 +2621,12 @@
       <c r="C101" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101" t="str" cm="1">
+        <f t="array" ref="D101">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>91</v>
       </c>
@@ -2202,8 +2636,12 @@
       <c r="C102" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102" t="str" cm="1">
+        <f t="array" ref="D102">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>91</v>
       </c>
@@ -2213,8 +2651,12 @@
       <c r="C103" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103" t="str" cm="1">
+        <f t="array" ref="D103">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>94</v>
       </c>
@@ -2224,8 +2666,12 @@
       <c r="C104" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104" t="str" cm="1">
+        <f t="array" ref="D104">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>94</v>
       </c>
@@ -2235,8 +2681,12 @@
       <c r="C105" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D105" t="str" cm="1">
+        <f t="array" ref="D105">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>94</v>
       </c>
@@ -2246,8 +2696,12 @@
       <c r="C106" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106" t="str" cm="1">
+        <f t="array" ref="D106">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>94</v>
       </c>
@@ -2257,8 +2711,12 @@
       <c r="C107" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107" t="str" cm="1">
+        <f t="array" ref="D107">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>94</v>
       </c>
@@ -2268,8 +2726,12 @@
       <c r="C108" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108" t="str" cm="1">
+        <f t="array" ref="D108">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>94</v>
       </c>
@@ -2279,8 +2741,12 @@
       <c r="C109" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D109" t="str" cm="1">
+        <f t="array" ref="D109">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>94</v>
       </c>
@@ -2290,8 +2756,12 @@
       <c r="C110" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110" t="str" cm="1">
+        <f t="array" ref="D110">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>94</v>
       </c>
@@ -2301,8 +2771,12 @@
       <c r="C111" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111" t="str" cm="1">
+        <f t="array" ref="D111">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>94</v>
       </c>
@@ -2312,8 +2786,12 @@
       <c r="C112" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112" t="str" cm="1">
+        <f t="array" ref="D112">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>96</v>
       </c>
@@ -2323,8 +2801,12 @@
       <c r="C113" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113" t="str" cm="1">
+        <f t="array" ref="D113">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>96</v>
       </c>
@@ -2334,8 +2816,12 @@
       <c r="C114" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114" t="str" cm="1">
+        <f t="array" ref="D114">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>96</v>
       </c>
@@ -2345,8 +2831,12 @@
       <c r="C115" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115" t="str" cm="1">
+        <f t="array" ref="D115">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>96</v>
       </c>
@@ -2356,8 +2846,12 @@
       <c r="C116" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D116" t="str" cm="1">
+        <f t="array" ref="D116">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -2367,8 +2861,12 @@
       <c r="C117" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D117" t="str" cm="1">
+        <f t="array" ref="D117">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>96</v>
       </c>
@@ -2378,8 +2876,12 @@
       <c r="C118" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118" t="str" cm="1">
+        <f t="array" ref="D118">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>96</v>
       </c>
@@ -2388,6 +2890,10 @@
       </c>
       <c r="C119" t="s">
         <v>63</v>
+      </c>
+      <c r="D119" t="str" cm="1">
+        <f t="array" ref="D119">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
       </c>
     </row>
   </sheetData>
@@ -2407,14 +2913,14 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.5546875" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="29.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
@@ -2431,7 +2937,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -2448,7 +2954,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -2465,7 +2971,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2482,7 +2988,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2499,7 +3005,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -2516,7 +3022,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -2533,7 +3039,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -2550,7 +3056,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -2567,7 +3073,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -2584,7 +3090,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -2601,7 +3107,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -2630,16 +3136,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FDF1FD-5AD3-461B-8988-CF3807561F99}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
@@ -2647,7 +3153,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2655,7 +3161,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -2663,7 +3169,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -2671,7 +3177,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
@@ -2679,7 +3185,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -2687,7 +3193,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -2695,7 +3201,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -2703,7 +3209,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>73</v>
       </c>
@@ -2711,7 +3217,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>79</v>
       </c>
@@ -2719,7 +3225,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>82</v>
       </c>
@@ -2727,7 +3233,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>85</v>
       </c>
@@ -2735,7 +3241,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>86</v>
       </c>
@@ -2743,7 +3249,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>87</v>
       </c>
@@ -2751,7 +3257,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>88</v>
       </c>
@@ -2759,7 +3265,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>89</v>
       </c>
@@ -2767,7 +3273,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>91</v>
       </c>
@@ -2775,7 +3281,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>94</v>
       </c>
@@ -2783,7 +3289,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>96</v>
       </c>

--- a/data/mappers/node_evaluation_vissim_report_mapping.xlsx
+++ b/data/mappers/node_evaluation_vissim_report_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abibeka\Github\Tobin Bridge Vissim Processing\data\mappers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353AE1C3-7B65-46AF-AEB9-BF9ADE24DFC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AB290B-F004-4F95-9CA5-763557188033}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{4EEC3B63-2907-4D6D-8AF0-8B40ADC5D7B7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4EEC3B63-2907-4D6D-8AF0-8B40ADC5D7B7}"/>
   </bookViews>
   <sheets>
     <sheet name="vissim_report_convertion" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="128">
   <si>
     <t>direction_results</t>
   </si>
@@ -183,9 +183,6 @@
     <t>NWL</t>
   </si>
   <si>
-    <t>NW-S</t>
-  </si>
-  <si>
     <t>105</t>
   </si>
   <si>
@@ -442,6 +439,9 @@
   </si>
   <si>
     <t>node_type</t>
+  </si>
+  <si>
+    <t>NW-W</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -529,14 +529,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -749,6 +747,9 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -763,13 +764,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5D3C6437-7CA1-4099-B1FD-65186A1F8F1C}" name="Table2" displayName="Table2" ref="A1:D119" totalsRowShown="0">
-  <autoFilter ref="A1:D119" xr:uid="{1ED07796-7F1D-4F6D-8BFF-D5C32F34D226}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5D3C6437-7CA1-4099-B1FD-65186A1F8F1C}" name="Table2" displayName="Table2" ref="A1:D122" totalsRowShown="0">
+  <autoFilter ref="A1:D122" xr:uid="{1ED07796-7F1D-4F6D-8BFF-D5C32F34D226}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A63E5687-EF45-4160-9811-72FB26DBD582}" name="node_no"/>
     <tableColumn id="2" xr3:uid="{77108235-2309-4974-853B-868B6066C38E}" name="movement_direction_unique"/>
     <tableColumn id="5" xr3:uid="{1FBE862F-4B52-4EE6-A8E9-5A4BBB436083}" name="direction_results"/>
-    <tableColumn id="3" xr3:uid="{FE80B79D-1891-4272-968A-3DB7C108A7DB}" name="node_type" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{FE80B79D-1891-4272-968A-3DB7C108A7DB}" name="node_type" dataDxfId="10">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -778,25 +779,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CED0673-5A03-4330-B343-84BE1B2EF9BC}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CED0673-5A03-4330-B343-84BE1B2EF9BC}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:E12" xr:uid="{D0009935-82AE-4D9E-A12D-E81A08FD2009}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B2EA7CCF-D201-4464-A4A6-5753DA0ED25F}" name="node_no" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{21D3F657-5776-4BED-9A8B-FBCE2C52F8BB}" name="movement_direction" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{4C9CECDD-0AF2-4F0B-A2F9-5E53CA791932}" name="movement_direction_unique" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{A955384D-2EA8-4552-BD50-DCC68799798E}" name="from_link" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{F408AD12-55E3-4355-A010-0B3BD255BAA7}" name="to_link" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{B2EA7CCF-D201-4464-A4A6-5753DA0ED25F}" name="node_no" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{21D3F657-5776-4BED-9A8B-FBCE2C52F8BB}" name="movement_direction" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{4C9CECDD-0AF2-4F0B-A2F9-5E53CA791932}" name="movement_direction_unique" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{A955384D-2EA8-4552-BD50-DCC68799798E}" name="from_link" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{F408AD12-55E3-4355-A010-0B3BD255BAA7}" name="to_link" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A172F30-4ABE-481F-96E3-1E3964D9BFFF}" name="Table3" displayName="Table3" ref="A1:B19" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A172F30-4ABE-481F-96E3-1E3964D9BFFF}" name="Table3" displayName="Table3" ref="A1:B19" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:B19" xr:uid="{01382732-1F04-417D-BCCF-1BB2E848AF38}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B8A5CC37-DC65-443D-91D8-B7DBA6588226}" name="node_no" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{4B32E5B1-CA05-4B71-B5A7-74FF48B5E36C}" name="intersection_type" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B8A5CC37-DC65-443D-91D8-B7DBA6588226}" name="node_no" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{4B32E5B1-CA05-4B71-B5A7-74FF48B5E36C}" name="intersection_type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1099,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA83A6C2-E793-48C7-9267-43E16B54640C}">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,16 +1115,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1206,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1251,7 +1252,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -1266,7 +1267,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -1296,7 +1297,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -1311,7 +1312,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
@@ -1326,7 +1327,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -1341,7 +1342,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -1356,7 +1357,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -1371,7 +1372,7 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
@@ -1386,7 +1387,7 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
@@ -1401,7 +1402,7 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
@@ -1416,7 +1417,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
         <v>37</v>
@@ -1491,7 +1492,7 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -1536,7 +1537,7 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -1548,7 +1549,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -1563,13 +1564,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
         <v>44</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
       </c>
       <c r="D31" t="str" cm="1">
         <f t="array" ref="D31">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1578,28 +1579,28 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" t="str" cm="1">
+        <v>4</v>
+      </c>
+      <c r="D32" s="8" t="str" cm="1">
         <f t="array" ref="D32">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
         <v>Signalized</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D33" t="str" cm="1">
         <f t="array" ref="D33">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1608,13 +1609,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D34" t="str" cm="1">
         <f t="array" ref="D34">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1623,13 +1624,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D35" t="str" cm="1">
         <f t="array" ref="D35">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1638,13 +1639,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D36" t="str" cm="1">
         <f t="array" ref="D36">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1653,13 +1654,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="D37" t="str" cm="1">
         <f t="array" ref="D37">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1668,13 +1669,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D38" t="str" cm="1">
         <f t="array" ref="D38">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1683,13 +1684,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D39" t="str" cm="1">
         <f t="array" ref="D39">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1698,13 +1699,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D40" t="str" cm="1">
         <f t="array" ref="D40">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1713,13 +1714,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D41" t="str" cm="1">
         <f t="array" ref="D41">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1728,13 +1729,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D42" t="str" cm="1">
         <f t="array" ref="D42">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1743,13 +1744,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D43" t="str" cm="1">
         <f t="array" ref="D43">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1758,13 +1759,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D44" t="str" cm="1">
         <f t="array" ref="D44">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1773,13 +1774,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D45" t="str" cm="1">
         <f t="array" ref="D45">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1788,13 +1789,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
         <v>50</v>
       </c>
-      <c r="B46" t="s">
-        <v>43</v>
-      </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D46" t="str" cm="1">
         <f t="array" ref="D46">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1803,13 +1804,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D47" t="str" cm="1">
         <f t="array" ref="D47">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1818,13 +1819,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
         <v>53</v>
       </c>
-      <c r="B48" t="s">
-        <v>12</v>
-      </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D48" t="str" cm="1">
         <f t="array" ref="D48">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1833,13 +1834,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D49" t="str" cm="1">
         <f t="array" ref="D49">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1848,13 +1849,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D50" t="str" cm="1">
         <f t="array" ref="D50">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1863,13 +1864,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D51" t="str" cm="1">
         <f t="array" ref="D51">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1878,13 +1879,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D52" t="str" cm="1">
         <f t="array" ref="D52">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1893,13 +1894,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D53" t="str" cm="1">
         <f t="array" ref="D53">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1908,13 +1909,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D54" t="str" cm="1">
         <f t="array" ref="D54">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1923,13 +1924,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D55" t="str" cm="1">
         <f t="array" ref="D55">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1938,13 +1939,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D56" t="str" cm="1">
         <f t="array" ref="D56">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1953,13 +1954,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D57" t="str" cm="1">
         <f t="array" ref="D57">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1968,13 +1969,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D58" t="str" cm="1">
         <f t="array" ref="D58">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1983,13 +1984,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D59" t="str" cm="1">
         <f t="array" ref="D59">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -1998,13 +1999,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" t="s">
         <v>73</v>
       </c>
-      <c r="B60" t="s">
-        <v>75</v>
-      </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D60" t="str" cm="1">
         <f t="array" ref="D60">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2013,13 +2014,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D61" t="str" cm="1">
         <f t="array" ref="D61">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2028,13 +2029,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D62" t="str" cm="1">
         <f t="array" ref="D62">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2043,13 +2044,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D63" t="str" cm="1">
         <f t="array" ref="D63">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2058,13 +2059,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D64" t="str" cm="1">
         <f t="array" ref="D64">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2073,13 +2074,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="C65" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D65" t="str" cm="1">
         <f t="array" ref="D65">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2088,13 +2089,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D66" t="str" cm="1">
         <f t="array" ref="D66">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2103,13 +2104,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C67" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D67" t="str" cm="1">
         <f t="array" ref="D67">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2118,10 +2119,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
         <v>66</v>
@@ -2133,13 +2134,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D69" t="str" cm="1">
         <f t="array" ref="D69">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2148,28 +2149,28 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D70" t="str" cm="1">
         <f t="array" ref="D70">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
-        <v>twsc</v>
+        <v>Signalized</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s">
         <v>79</v>
       </c>
-      <c r="B71" t="s">
-        <v>12</v>
-      </c>
       <c r="C71" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D71" t="str" cm="1">
         <f t="array" ref="D71">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2178,13 +2179,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D72" t="str" cm="1">
         <f t="array" ref="D72">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2193,13 +2194,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D73" t="str" cm="1">
         <f t="array" ref="D73">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2208,13 +2209,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D74" t="str" cm="1">
         <f t="array" ref="D74">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2223,13 +2224,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" t="s">
         <v>82</v>
       </c>
-      <c r="B75" t="s">
-        <v>84</v>
-      </c>
       <c r="C75" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D75" t="str" cm="1">
         <f t="array" ref="D75">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2238,13 +2239,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D76" t="str" cm="1">
         <f t="array" ref="D76">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2253,13 +2254,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C77" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D77" t="str" cm="1">
         <f t="array" ref="D77">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2268,13 +2269,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C78" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D78" t="str" cm="1">
         <f t="array" ref="D78">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2283,13 +2284,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D79" t="str" cm="1">
         <f t="array" ref="D79">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2298,13 +2299,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C80" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D80" t="str" cm="1">
         <f t="array" ref="D80">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2313,13 +2314,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D81" t="str" cm="1">
         <f t="array" ref="D81">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2328,13 +2329,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D82" t="str" cm="1">
         <f t="array" ref="D82">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2343,28 +2344,28 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C83" t="s">
-        <v>70</v>
-      </c>
-      <c r="D83" t="str" cm="1">
+        <v>61</v>
+      </c>
+      <c r="D83" s="8" t="str" cm="1">
         <f t="array" ref="D83">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
         <v>twsc</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C84" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D84" t="str" cm="1">
         <f t="array" ref="D84">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2373,28 +2374,28 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" t="str" cm="1">
+        <v>55</v>
+      </c>
+      <c r="D85" s="8" t="str" cm="1">
         <f t="array" ref="D85">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
         <v>twsc</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D86" t="str" cm="1">
         <f t="array" ref="D86">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2403,13 +2404,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D87" t="str" cm="1">
         <f t="array" ref="D87">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2418,13 +2419,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C88" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="D88" t="str" cm="1">
         <f t="array" ref="D88">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2433,13 +2434,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="D89" t="str" cm="1">
         <f t="array" ref="D89">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2448,13 +2449,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B90" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="D90" t="str" cm="1">
         <f t="array" ref="D90">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2463,13 +2464,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B91" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="C91" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D91" t="str" cm="1">
         <f t="array" ref="D91">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2478,13 +2479,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D92" t="str" cm="1">
         <f t="array" ref="D92">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2493,13 +2494,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B93" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="D93" t="str" cm="1">
         <f t="array" ref="D93">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2508,13 +2509,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D94" t="str" cm="1">
         <f t="array" ref="D94">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2523,13 +2524,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D95" t="str" cm="1">
         <f t="array" ref="D95">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2538,13 +2539,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C96" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D96" t="str" cm="1">
         <f t="array" ref="D96">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2553,13 +2554,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D97" t="str" cm="1">
         <f t="array" ref="D97">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2568,13 +2569,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B98" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D98" t="str" cm="1">
         <f t="array" ref="D98">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2583,13 +2584,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B99" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D99" t="str" cm="1">
         <f t="array" ref="D99">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2598,13 +2599,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B100" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D100" t="str" cm="1">
         <f t="array" ref="D100">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2613,13 +2614,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B101" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C101" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D101" t="str" cm="1">
         <f t="array" ref="D101">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2628,13 +2629,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C102" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D102" t="str" cm="1">
         <f t="array" ref="D102">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2643,13 +2644,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>90</v>
+      </c>
+      <c r="B103" t="s">
         <v>91</v>
       </c>
-      <c r="B103" t="s">
-        <v>28</v>
-      </c>
       <c r="C103" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D103" t="str" cm="1">
         <f t="array" ref="D103">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2658,13 +2659,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B104" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C104" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D104" t="str" cm="1">
         <f t="array" ref="D104">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2673,13 +2674,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B105" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D105" t="str" cm="1">
         <f t="array" ref="D105">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2688,10 +2689,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B106" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C106" t="s">
         <v>67</v>
@@ -2703,13 +2704,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B107" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C107" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D107" t="str" cm="1">
         <f t="array" ref="D107">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2718,13 +2719,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B108" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C108" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D108" t="str" cm="1">
         <f t="array" ref="D108">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2733,13 +2734,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B109" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="C109" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D109" t="str" cm="1">
         <f t="array" ref="D109">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2748,13 +2749,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B110" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C110" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D110" t="str" cm="1">
         <f t="array" ref="D110">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2763,13 +2764,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B111" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C111" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D111" t="str" cm="1">
         <f t="array" ref="D111">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2778,13 +2779,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>93</v>
+      </c>
+      <c r="B112" t="s">
         <v>94</v>
       </c>
-      <c r="B112" t="s">
-        <v>71</v>
-      </c>
       <c r="C112" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D112" t="str" cm="1">
         <f t="array" ref="D112">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2793,13 +2794,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B113" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D113" t="str" cm="1">
         <f t="array" ref="D113">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2808,13 +2809,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B114" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C114" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D114" t="str" cm="1">
         <f t="array" ref="D114">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2823,13 +2824,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="D115" t="str" cm="1">
         <f t="array" ref="D115">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2838,13 +2839,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>95</v>
+      </c>
+      <c r="B116" t="s">
         <v>96</v>
       </c>
-      <c r="B116" t="s">
-        <v>47</v>
-      </c>
       <c r="C116" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D116" t="str" cm="1">
         <f t="array" ref="D116">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2853,13 +2854,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B117" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="C117" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D117" t="str" cm="1">
         <f t="array" ref="D117">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2868,13 +2869,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B118" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="D118" t="str" cm="1">
         <f t="array" ref="D118">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
@@ -2883,16 +2884,61 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C119" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D119" t="str" cm="1">
         <f t="array" ref="D119">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>95</v>
+      </c>
+      <c r="B120" t="s">
+        <v>83</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="str" cm="1">
+        <f t="array" ref="D120">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>95</v>
+      </c>
+      <c r="B121" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121" t="s">
+        <v>59</v>
+      </c>
+      <c r="D121" t="str" cm="1">
+        <f t="array" ref="D121">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
+        <v>twsc</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>95</v>
+      </c>
+      <c r="B122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" t="s">
+        <v>62</v>
+      </c>
+      <c r="D122" t="str" cm="1">
+        <f t="array" ref="D122">_xlfn.XLOOKUP(Table2[[#This Row],[node_no]],Table3[[#All],[node_no]],Table3[[#All],[intersection_type]])</f>
         <v>twsc</v>
       </c>
     </row>
@@ -2909,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368A3629-2649-458F-B1E2-576370896C83}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2922,19 +2968,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2945,13 +2991,13 @@
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2962,13 +3008,13 @@
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2979,13 +3025,13 @@
         <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2996,13 +3042,13 @@
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3013,13 +3059,13 @@
         <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3030,13 +3076,13 @@
         <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3047,13 +3093,13 @@
         <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3064,13 +3110,13 @@
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3081,13 +3127,13 @@
         <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3098,13 +3144,13 @@
         <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3115,13 +3161,13 @@
         <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3147,10 +3193,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3158,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3166,7 +3212,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3174,7 +3220,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3182,119 +3228,119 @@
         <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
